--- a/src/data/bankA/PAM_Portfolio.xlsx
+++ b/src/data/bankA/PAM_Portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F26878-6166-564B-83C4-74B485215E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3EA38-D8BF-754D-83A2-DF1A405445F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="500" windowWidth="28800" windowHeight="20500" xr2:uid="{EB6AEAA4-A44D-D74E-B6F0-4D027B99E743}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{EB6AEAA4-A44D-D74E-B6F0-4D027B99E743}"/>
   </bookViews>
   <sheets>
     <sheet name="PrincipalsAtMaturity" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>calendar</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>LSD0002</t>
+  </si>
+  <si>
+    <t>Short position of 10-year Coupon Bond with 3% coupon rate representing Client Savings</t>
   </si>
 </sst>
 </file>
@@ -641,9 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA33D00-6807-F443-9469-E95E09AFC35B}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -706,7 +707,7 @@
     <col min="57" max="57" width="78.33203125" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="28.5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
@@ -1623,6 +1624,9 @@
       </c>
       <c r="BD5">
         <v>1</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>80</v>
       </c>
       <c r="BF5" t="s">
         <v>61</v>

--- a/src/data/bankA/PAM_Portfolio.xlsx
+++ b/src/data/bankA/PAM_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E3EA38-D8BF-754D-83A2-DF1A405445F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF970ABA-C790-784E-883A-3763F40B760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{EB6AEAA4-A44D-D74E-B6F0-4D027B99E743}"/>
   </bookViews>
@@ -323,11 +323,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,7 +643,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA33D00-6807-F443-9469-E95E09AFC35B}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -978,7 +979,7 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="1">
         <f>DATE(YEAR(Z2)+10,MONTH(Z2),DAY(Z2))</f>
         <v>48214</v>
       </c>
@@ -1164,7 +1165,7 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="1">
         <f>DATE(YEAR(Z3)+10,MONTH(Z3),DAY(Z3))</f>
         <v>48214</v>
       </c>
@@ -1350,7 +1351,7 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="1">
         <f>DATE(YEAR(Z4)+10,MONTH(Z4),DAY(Z4))</f>
         <v>48214</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="1">
         <f>DATE(YEAR(Z5)+10,MONTH(Z5),DAY(Z5))</f>
         <v>48214</v>
       </c>

--- a/src/data/bankA/PAM_Portfolio.xlsx
+++ b/src/data/bankA/PAM_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF970ABA-C790-784E-883A-3763F40B760F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E4168-0D33-6042-BD68-05BD6AFE1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{EB6AEAA4-A44D-D74E-B6F0-4D027B99E743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
   <si>
     <t>calendar</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Long position of 10-year Zero Coupon Bond representing the Liquid Assets</t>
-  </si>
-  <si>
-    <t>30E361</t>
   </si>
   <si>
     <t>LSD0002</t>
@@ -643,71 +640,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA33D00-6807-F443-9469-E95E09AFC35B}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="30" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="30.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="78.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1476,7 +1472,7 @@
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
@@ -1498,7 +1494,7 @@
         <v>0.03</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1627,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF5" t="s">
         <v>61</v>

--- a/src/data/bankA/PAM_Portfolio.xlsx
+++ b/src/data/bankA/PAM_Portfolio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viganhamzai/Documents/ZHAW_WI/07_Semester/PA/PA_FEMS/src/data/bankA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E4168-0D33-6042-BD68-05BD6AFE1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74290E1-1FDE-F44E-AF24-F450B47ACA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{EB6AEAA4-A44D-D74E-B6F0-4D027B99E743}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>calendar</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Short position of 10-year Coupon Bond with 3% coupon rate representing Client Savings</t>
+  </si>
+  <si>
+    <t>DC_EcoSec_H</t>
   </si>
 </sst>
 </file>
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA33D00-6807-F443-9469-E95E09AFC35B}">
   <dimension ref="A1:BH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,7 +919,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1">
         <f>DATE(2023,1,1)</f>
